--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,18</t>
+          <t>13,75; 21,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 16,19</t>
+          <t>7,8; 16,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 17,15</t>
+          <t>7,41; 17,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,08</t>
+          <t>7,75; 17,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,61; 69,71</t>
+          <t>39,34; 72,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,39; 50,36</t>
+          <t>20,57; 49,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,36; 56,58</t>
+          <t>20,92; 56,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 46,18</t>
+          <t>17,89; 47,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,75</t>
+          <t>5,44; 10,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,56</t>
+          <t>3,64; 8,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,42</t>
+          <t>2,49; 7,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,16</t>
+          <t>-0,46; 5,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,49; 142,76</t>
+          <t>61,97; 146,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 91,78</t>
+          <t>32,36; 94,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,5; 67,25</t>
+          <t>18,93; 65,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 40,07</t>
+          <t>-3,12; 39,26</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,15</t>
+          <t>2,16; 10,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,27</t>
+          <t>-2,15; 5,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,02</t>
+          <t>0,85; 8,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 2,8</t>
+          <t>-3,24; 2,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 155,22</t>
+          <t>19,8; 152,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 131,04</t>
+          <t>-27,17; 118,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 191,03</t>
+          <t>9,08; 191,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 31,47</t>
+          <t>-24,74; 33,84</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>11,06; 15,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,11</t>
+          <t>8,08; 12,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,03</t>
+          <t>6,3; 10,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,78</t>
+          <t>3,05; 7,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>66,83; 103,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,1; 77,53</t>
+          <t>45,77; 77,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,01; 67,65</t>
+          <t>37,45; 68,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 46,44</t>
+          <t>16,47; 45,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 21,65</t>
+          <t>13,32; 21,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 16,1</t>
+          <t>8,04; 16,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 17,24</t>
+          <t>7,47; 17,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,34; 72,38</t>
+          <t>38,61; 71,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,57; 49,99</t>
+          <t>21,49; 50,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,92; 56,57</t>
+          <t>21,18; 56,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,03</t>
+          <t>5,41; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,35</t>
+          <t>3,72; 8,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,13</t>
+          <t>2,71; 7,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,97; 146,49</t>
+          <t>59,08; 140,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,36; 94,06</t>
+          <t>31,82; 91,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,93; 65,29</t>
+          <t>20,13; 63,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 10,36</t>
+          <t>1,76; 9,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 5,24</t>
+          <t>-2,45; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,01</t>
+          <t>0,88; 7,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 152,04</t>
+          <t>16,82; 144,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 118,58</t>
+          <t>-31,39; 122,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 191,05</t>
+          <t>9,11; 180,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 15,1</t>
+          <t>10,91; 14,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,05</t>
+          <t>8,01; 12,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,24</t>
+          <t>6,22; 10,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,83; 103,0</t>
+          <t>66,4; 99,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,77; 77,15</t>
+          <t>44,78; 78,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,45; 68,6</t>
+          <t>36,99; 69,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 21,32</t>
+          <t>13,24; 21,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,44</t>
+          <t>7,35; 16,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 17,04</t>
+          <t>7,57; 17,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 17,3</t>
+          <t>7,06; 17,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,61; 71,07</t>
+          <t>37,61; 69,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 50,29</t>
+          <t>19,39; 50,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 56,47</t>
+          <t>21,36; 56,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,89; 47,04</t>
+          <t>16,24; 46,18</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,91</t>
+          <t>5,07; 9,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,37</t>
+          <t>3,74; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,13</t>
+          <t>2,51; 7,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,16</t>
+          <t>-0,41; 5,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,08; 140,83</t>
+          <t>57,49; 142,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,82; 91,96</t>
+          <t>33,07; 91,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 63,69</t>
+          <t>19,5; 67,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 39,26</t>
+          <t>-2,51; 40,07</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,82</t>
+          <t>2,27; 10,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,34</t>
+          <t>-2,45; 5,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,84</t>
+          <t>1,21; 8,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,86</t>
+          <t>-3,37; 2,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 144,72</t>
+          <t>20,84; 155,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 122,34</t>
+          <t>-30,62; 131,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 180,08</t>
+          <t>16,54; 191,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 33,84</t>
+          <t>-27,97; 31,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,79</t>
+          <t>11,09; 15,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 12,19</t>
+          <t>7,97; 12,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,28</t>
+          <t>6,12; 10,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,69</t>
+          <t>3,16; 7,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,4; 99,1</t>
+          <t>66,42; 102,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,78; 78,1</t>
+          <t>45,1; 77,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,99; 69,28</t>
+          <t>37,01; 67,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,47; 45,99</t>
+          <t>17,23; 46,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,25</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,08</t>
+          <t>7,37; 17,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 46,18</t>
+          <t>16,95; 47,08</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>22,51%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,16</t>
+          <t>-1,64; 6,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 40,07</t>
+          <t>-9,7; 68,11</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>-2,1%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 2,8</t>
+          <t>-3,41; 2,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 31,47</t>
+          <t>-27,51; 32,21</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>35,64%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,78</t>
+          <t>2,05; 9,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 46,44</t>
+          <t>12,47; 68,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,18</t>
+          <t>13,35; 21,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 16,19</t>
+          <t>7,55; 15,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 17,15</t>
+          <t>7,37; 17,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 17,17</t>
+          <t>7,46; 17,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,61; 69,71</t>
+          <t>39,23; 72,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,39; 50,36</t>
+          <t>19,86; 49,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,36; 56,58</t>
+          <t>21,06; 56,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 47,08</t>
+          <t>17,14; 46,35</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,75</t>
+          <t>5,77; 9,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,56</t>
+          <t>3,76; 8,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,42</t>
+          <t>2,73; 7,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,92</t>
+          <t>-1,26; 7,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,49; 142,76</t>
+          <t>66,2; 147,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 91,78</t>
+          <t>33,13; 89,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,5; 67,25</t>
+          <t>20,46; 65,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 68,11</t>
+          <t>-7,29; 73,1</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,15</t>
+          <t>1,84; 10,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,27</t>
+          <t>-2,27; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,02</t>
+          <t>0,83; 7,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,76</t>
+          <t>-3,53; 2,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 155,22</t>
+          <t>16,51; 156,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 131,04</t>
+          <t>-30,27; 117,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 191,03</t>
+          <t>10,31; 175,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 32,21</t>
+          <t>-28,44; 29,77</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>10,76; 14,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,11</t>
+          <t>8,02; 12,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,03</t>
+          <t>6,25; 10,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,26</t>
+          <t>1,92; 9,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>64,22; 100,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,1; 77,53</t>
+          <t>45,63; 77,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,01; 67,65</t>
+          <t>36,45; 68,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 68,63</t>
+          <t>12,64; 69,27</t>
         </is>
       </c>
     </row>
